--- a/MainTop/07.06.2025/таня месяц с 06.05.2025 по 06.06.2025/fix.xlsx
+++ b/MainTop/07.06.2025/таня месяц с 06.05.2025 по 06.06.2025/fix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\07.06.2025\таня месяц с 06.05.2025 по 06.06.2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\07.06.2025\таня месяц с 06.05.2025 по 06.06.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE27EEBB-DA64-4555-9342-44C1289A0271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17070FCA-32D1-43F3-822A-00C36AC54DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +153,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -183,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -192,6 +210,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -497,7 +518,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,58 +570,58 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="6">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="6">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="8">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -615,69 +636,69 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="8">
         <v>8</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="C11" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B12" s="8">
+        <v>4</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="8">
+        <v>4</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="2">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B14" s="8">
+        <v>4</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B15" s="8">
+        <v>4</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="2">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="8">
+        <v>4</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>11</v>
       </c>
     </row>
